--- a/02_PublishedAnalysis/Figs_Tables/Sign_fungOTUs.xlsx
+++ b/02_PublishedAnalysis/Figs_Tables/Sign_fungOTUs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/Figs_Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC107213-51F3-C644-ACD5-455E7EB72DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700028B7-A68E-1146-9CE4-6071ECB93E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="25040" windowHeight="13740" xr2:uid="{6D693A61-9226-DC4F-B5D3-5F2A149B2265}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="25040" windowHeight="13740" xr2:uid="{6D693A61-9226-DC4F-B5D3-5F2A149B2265}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>49</v>

--- a/02_PublishedAnalysis/Figs_Tables/Sign_fungOTUs.xlsx
+++ b/02_PublishedAnalysis/Figs_Tables/Sign_fungOTUs.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/Figs_Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700028B7-A68E-1146-9CE4-6071ECB93E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB3B54-143D-5F4F-BBA3-6983668D4786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="25040" windowHeight="13740" xr2:uid="{6D693A61-9226-DC4F-B5D3-5F2A149B2265}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="25040" windowHeight="13740" xr2:uid="{6D693A61-9226-DC4F-B5D3-5F2A149B2265}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="indic_taxabunds_lifeenv_1" localSheetId="1">Sheet2!$A$1:$R$20</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,8 +34,38 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{F6646E26-C346-1444-BE1A-EE4277397E19}" name="indic_taxabunds_lifeenv" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/02_hypothesisbasedanalsysis/indic_taxabunds_lifeenv.txt" space="1" consecutive="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>f__Dothioraceae</t>
   </si>
@@ -49,9 +82,6 @@
     <t>g__Phaeosphaeria</t>
   </si>
   <si>
-    <t>g__Aureobasidium</t>
-  </si>
-  <si>
     <t>OTU Taxonomy</t>
   </si>
   <si>
@@ -61,9 +91,6 @@
     <t>Symbiotic</t>
   </si>
   <si>
-    <t>o__ Hypocreales</t>
-  </si>
-  <si>
     <t>p__Rozellomycota</t>
   </si>
   <si>
@@ -97,9 +124,6 @@
     <t>g__Mycofalcella</t>
   </si>
   <si>
-    <t xml:space="preserve">g__ Geomyces </t>
-  </si>
-  <si>
     <t>Transient</t>
   </si>
   <si>
@@ -115,19 +139,130 @@
     <t>relative abundance in environment</t>
   </si>
   <si>
-    <t>rank abund on toad</t>
-  </si>
-  <si>
-    <t>rank abund ance in environment</t>
-  </si>
-  <si>
-    <t>percentile rank abundance on toad</t>
-  </si>
-  <si>
-    <t>percentile rank abundance in environment</t>
-  </si>
-  <si>
-    <t>thing</t>
+    <t>otu.names</t>
+  </si>
+  <si>
+    <t>W_stat</t>
+  </si>
+  <si>
+    <t>W_f</t>
+  </si>
+  <si>
+    <t>env_relAbund</t>
+  </si>
+  <si>
+    <t>life_relAbund</t>
+  </si>
+  <si>
+    <t>detected_wcrit</t>
+  </si>
+  <si>
+    <t>detected_0.9</t>
+  </si>
+  <si>
+    <t>detected_0.8</t>
+  </si>
+  <si>
+    <t>detected_0.7</t>
+  </si>
+  <si>
+    <t>detected_0.6</t>
+  </si>
+  <si>
+    <t>effSize_statcrit</t>
+  </si>
+  <si>
+    <t>effSize_0.9</t>
+  </si>
+  <si>
+    <t>effSize_0.8</t>
+  </si>
+  <si>
+    <t>effSize_0.7</t>
+  </si>
+  <si>
+    <t>effSize_0.6</t>
+  </si>
+  <si>
+    <t>Enriched</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Thelebolales.Pseudeurotiaceae.Pseudeurotium.Pseudeurotium_hygrophilumOTU_8</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Capnodiales.Cladosporiaceae.Cladosporium.Cladosporium_delicatulumOTU_4</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Capnodiales.Mycosphaerellaceae.Mycosphaerella.Mycosphaerella_tassianaOTU_1</t>
+  </si>
+  <si>
+    <t>Fungi.Mortierellomycota.Mortierellomycetes.Mortierellales.Mortierellaceae.Mortierella.unidentifiedOTU_99</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Helotiales.Hyaloscyphaceae.Pezizella.Pezizella_epithallinaOTU_3</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Helotiales.Leotiaceae.Neobulgaria.Neobulgaria_puraOTU_177</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Agaricomycetes.Agaricales.Inocybaceae.Inocybe.Inocybe_curvipesOTU_92</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Thelebolales.Pseudeurotiaceae.Geomyces.unidentifiedOTU_79</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Venturiales.Venturiaceae.Venturia.Venturia_inaequalisOTU_148</t>
+  </si>
+  <si>
+    <t>Fungi.Rozellomycota.unidentified.unidentified.unidentified.unidentified.unidentifiedOTU_34</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Sordariomycetes.Hypocreales.unidentified.unidentified.unidentifiedOTU_81</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Dothideales.Aureobasidiaceae.Aureobasidium.Aureobasidium_pullulansOTU_25</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Helotiales.Helotiaceae.Mycofalcella.Mycofalcella_calcarataOTU_14</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Tremellomycetes.Filobasidiales.unidentified.unidentified.unidentifiedOTU_15</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Tremellomycetes.Filobasidiales.Piskurozymaceae.Solicoccozyma.Solicoccozyma_terricolaOTU_83</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Arthoniomycetes.Lichenostigmatales.Phaeococcomycetaceae.Phaeococcomyces.Phaeococcomyces_mexicanusOTU_166</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Phaeosphaeriaceae.Phaeosphaeria.NAOTU_73</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Dothideales.Dothioraceae.unidentified.unidentifiedOTU_58</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Microbotryomycetes.Kriegeriales.Kriegeriaceae.Kriegeria.Kriegeria_eriophoriOTU_9</t>
+  </si>
+  <si>
+    <t>env_relAbund_ln</t>
+  </si>
+  <si>
+    <t>life_relAbund_ln</t>
+  </si>
+  <si>
+    <t>ln(relative abundance) in environment</t>
+  </si>
+  <si>
+    <t>ln(relative abundance) on toad</t>
+  </si>
+  <si>
+    <t>g__Geomyces</t>
+  </si>
+  <si>
+    <t>o__Hypocreales</t>
+  </si>
+  <si>
+    <t>g__.Aureobasidium</t>
   </si>
 </sst>
 </file>
@@ -181,6 +316,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="indic_taxabunds_lifeenv_1" connectionId="1" xr16:uid="{9B91BB5B-F1D5-2A43-98A3-03D861FB4B2C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,12 +622,12 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="101" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -497,643 +636,561 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1">
-        <v>8.5068343140000007</v>
+        <v>30.787810040554501</v>
       </c>
       <c r="E2" s="1">
-        <v>19.354838709677399</v>
+        <v>0.113334189119341</v>
       </c>
       <c r="F2" s="1">
-        <v>6.25</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>167</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3.515625E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.326171875</v>
-      </c>
+        <v>1.30676831509567E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-2.1774143990155399</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-4.3376130317144304</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>51</v>
       </c>
       <c r="D3" s="1">
-        <v>30.78781004</v>
+        <v>22.323137572103999</v>
       </c>
       <c r="E3" s="1">
-        <v>67.741935483871003</v>
+        <v>4.0603974985536098E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2.34375E-2</v>
-      </c>
+        <v>9.6161712275815797E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-3.2038893111192501</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-2.3417240018249101</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1">
-        <v>11.399427080000001</v>
+        <v>11.4736669933824</v>
       </c>
       <c r="E4" s="1">
-        <v>37.903225806451601</v>
+        <v>0.105573332763887</v>
       </c>
       <c r="F4" s="1">
-        <v>16.6666666666667</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>8.203125E-2</v>
-      </c>
+        <v>0.28321104688773002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-2.2483494702462199</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1.2615629105514099</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1">
-        <v>5.5834324349999997</v>
+        <v>42.750944864190302</v>
       </c>
       <c r="E5" s="1">
-        <v>16.935483870967701</v>
+        <v>1.47490277758582E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>2.0833333333333299</v>
-      </c>
-      <c r="G5">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>467</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4.1015625E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.912109375</v>
-      </c>
+        <v>1.44724788818585E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-4.21657811186983</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-6.5380915341972097</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
-        <v>7.8487844579999999</v>
+        <v>16.764901603090301</v>
       </c>
       <c r="E6" s="1">
-        <v>20.161290322580601</v>
+        <v>0.10453370766648</v>
       </c>
       <c r="F6" s="1">
-        <v>4.1666666666666696</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>295</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.125E-2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.576171875</v>
-      </c>
+        <v>3.43157784896434E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-2.2582456981873</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-3.3721500163090599</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
-        <v>9.2677400639999998</v>
+        <v>15.1676047743934</v>
       </c>
       <c r="E7" s="1">
-        <v>19.354838709677399</v>
+        <v>2.39497068502387E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>2.0833333333333299</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>347</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3.3203125E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.677734375</v>
-      </c>
+        <v>2.5151780896448699E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-3.73179919527366</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-5.9854116669454198</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
-        <v>11.47366699</v>
+        <v>21.6046389557156</v>
       </c>
       <c r="E8" s="1">
-        <v>83.870967741935502</v>
+        <v>3.0540774108107301E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>79.1666666666667</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.953125E-3</v>
-      </c>
+        <v>1.2585308998322301E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-3.4886926321616301</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-6.6778101907843004</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
-        <v>18.675386660000001</v>
+        <v>9.1698588991190704</v>
       </c>
       <c r="E9" s="1">
-        <v>6.4516129032258096</v>
+        <v>5.4631142973437501E-3</v>
       </c>
       <c r="F9" s="1">
-        <v>29.1666666666667</v>
-      </c>
-      <c r="G9">
-        <v>94</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.18359375</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2.734375E-2</v>
-      </c>
+        <v>4.8624488995423704E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-5.2097362677036303</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-5.3262130791843401</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>12.560620330000001</v>
+        <v>18.675386661815601</v>
       </c>
       <c r="E10" s="1">
-        <v>11.290322580645199</v>
+        <v>1.2377084823522899E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="G10">
-        <v>37</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7.2265625E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.7578125E-2</v>
-      </c>
+        <v>1.3087679169727501E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-4.3919085141292502</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-6.6386691057316902</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1">
-        <v>16.764901600000002</v>
+        <v>5.9732845415303499</v>
       </c>
       <c r="E11" s="1">
-        <v>30.645161290322601</v>
+        <v>8.9882448001836507E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>60.4166666666667</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.171875E-2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3.90625E-3</v>
-      </c>
+        <v>3.6034447684102501E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-2.4092525957003899</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-3.3232799179300101</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
-        <v>15.167604770000001</v>
+        <v>4.5048770435326002</v>
       </c>
       <c r="E12" s="1">
-        <v>8.8709677419354804</v>
+        <v>6.2787061021607896E-3</v>
       </c>
       <c r="F12" s="1">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G12">
-        <v>63</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.123046875</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.3671875E-2</v>
-      </c>
+        <v>5.8288613867035098E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-5.0705913544178598</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-5.1449336001459702</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>21.604638959999999</v>
+        <v>11.399427075370401</v>
       </c>
       <c r="E13" s="1">
-        <v>8.8709677419354804</v>
+        <v>4.42945969697229E-3</v>
       </c>
       <c r="F13" s="1">
-        <v>29.1666666666667</v>
-      </c>
-      <c r="G13">
-        <v>67</v>
-      </c>
-      <c r="H13">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.130859375</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3.125E-2</v>
-      </c>
+        <v>2.0399920842728202E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-5.41947766692945</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-3.8922242583979201</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
-        <v>22.32313757</v>
+        <v>12.5606203327633</v>
       </c>
       <c r="E14" s="1">
-        <v>18.548387096774199</v>
+        <v>2.7725941184653199E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>54.1666666666667</v>
-      </c>
-      <c r="G14">
-        <v>19</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3.7109375E-2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>5.859375E-3</v>
-      </c>
+        <v>3.57863615481202E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-3.5853867991747999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-5.6327735134971304</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1">
-        <v>5.973284542</v>
+        <v>9.2677400641421706</v>
       </c>
       <c r="E15" s="1">
-        <v>14.5161290322581</v>
+        <v>2.20070422535211E-4</v>
       </c>
       <c r="F15" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="G15">
-        <v>27</v>
-      </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1">
-        <v>5.2734375E-2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2.5390625E-2</v>
-      </c>
+        <v>2.0733823159401001E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-8.4215629604009905</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-3.8759889431326902</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
-        <v>9.1698588989999994</v>
+        <v>7.5048582496461202</v>
       </c>
       <c r="E16" s="1">
-        <v>4.8387096774193497</v>
+        <v>1.6453373788531799E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>29.1666666666667</v>
-      </c>
-      <c r="G16">
-        <v>147</v>
-      </c>
-      <c r="H16">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.287109375</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3.3203125E-2</v>
-      </c>
+        <v>2.4476841952631198E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-4.1072247292717901</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-6.01261292785692</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
-        <v>10.043269179999999</v>
+        <v>8.5068343142565297</v>
       </c>
       <c r="E17" s="1">
-        <v>8.0645161290322598</v>
+        <v>1.77709473801255E-4</v>
       </c>
       <c r="F17" s="1">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>81</v>
-      </c>
-      <c r="H17">
-        <v>25</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.158203125</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4.8828125E-2</v>
-      </c>
+        <v>1.2449551521648399E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-8.6353605107680806</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-4.3860706790778003</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
-        <v>7.5048582499999998</v>
+        <v>7.8487844578557997</v>
       </c>
       <c r="E18" s="1">
-        <v>10.4838709677419</v>
+        <v>1.9868301544050899E-4</v>
       </c>
       <c r="F18" s="1">
-        <v>27.0833333333333</v>
-      </c>
-      <c r="G18">
-        <v>51</v>
-      </c>
-      <c r="H18">
-        <v>21</v>
-      </c>
-      <c r="I18" s="1">
-        <v>9.9609375E-2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4.1015625E-2</v>
-      </c>
+        <v>1.08805361478411E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-8.5237998904670906</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-4.5207797604742499</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1">
-        <v>42.750944859999997</v>
+        <v>5.5834324346795503</v>
       </c>
       <c r="E19" s="1">
-        <v>7.2580645161290303</v>
+        <v>1.8788682581785999E-3</v>
       </c>
       <c r="F19" s="1">
-        <v>45.8333333333333</v>
-      </c>
-      <c r="G19">
-        <v>91</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.177734375</v>
-      </c>
-      <c r="J19" s="1">
-        <v>9.765625E-3</v>
-      </c>
+        <v>9.3290935780684196E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-6.27708567373974</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-4.6746174201748101</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
-        <v>4.5048770439999997</v>
+        <v>10.0432691796947</v>
       </c>
       <c r="E20" s="1">
-        <v>24.193548387096801</v>
+        <v>4.1544209063595801E-2</v>
       </c>
       <c r="F20" s="1">
-        <v>45.8333333333333</v>
-      </c>
-      <c r="G20">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.7578125E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>7.8125E-3</v>
-      </c>
+        <v>5.8707221096753097E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-3.1809971401112702</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-5.1377776357276401</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:K21">
@@ -1145,112 +1202,1146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F49DDC-19C8-3744-B871-99ADFE23C150}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="95.5" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>30.787810040554501</v>
+      </c>
+      <c r="D2">
+        <v>0.113334189119341</v>
+      </c>
+      <c r="E2">
+        <v>1.30676831509567E-2</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2">
+        <v>-2.1774143990155399</v>
+      </c>
+      <c r="R2">
+        <v>-4.3376130317144304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>22.323137572103999</v>
+      </c>
+      <c r="D3">
+        <v>4.0603974985536098E-2</v>
+      </c>
+      <c r="E3">
+        <v>9.6161712275815797E-2</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>-3.2038893111192501</v>
+      </c>
+      <c r="R3">
+        <v>-2.3417240018249101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>11.4736669933824</v>
+      </c>
+      <c r="D4">
+        <v>0.105573332763887</v>
+      </c>
+      <c r="E4">
+        <v>0.28321104688773002</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>-2.2483494702462199</v>
+      </c>
+      <c r="R4">
+        <v>-1.2615629105514099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>42.750944864190302</v>
+      </c>
+      <c r="D5">
+        <v>1.47490277758582E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.44724788818585E-3</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5">
+        <v>-4.21657811186983</v>
+      </c>
+      <c r="R5">
+        <v>-6.5380915341972097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>16.764901603090301</v>
+      </c>
+      <c r="D6">
+        <v>0.10453370766648</v>
+      </c>
+      <c r="E6">
+        <v>3.43157784896434E-2</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6">
+        <v>-2.2582456981873</v>
+      </c>
+      <c r="R6">
+        <v>-3.3721500163090599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>15.1676047743934</v>
+      </c>
+      <c r="D7">
+        <v>2.39497068502387E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.5151780896448699E-3</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7">
+        <v>-3.73179919527366</v>
+      </c>
+      <c r="R7">
+        <v>-5.9854116669454198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>21.6046389557156</v>
+      </c>
+      <c r="D8">
+        <v>3.0540774108107301E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.2585308998322301E-3</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8">
+        <v>-3.4886926321616301</v>
+      </c>
+      <c r="R8">
+        <v>-6.6778101907843004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>9.1698588991190704</v>
+      </c>
+      <c r="D9">
+        <v>5.4631142973437501E-3</v>
+      </c>
+      <c r="E9">
+        <v>4.8624488995423704E-3</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9">
+        <v>-5.2097362677036303</v>
+      </c>
+      <c r="R9">
+        <v>-5.3262130791843401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>18.675386661815601</v>
+      </c>
+      <c r="D10">
+        <v>1.2377084823522899E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.3087679169727501E-3</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10">
+        <v>-4.3919085141292502</v>
+      </c>
+      <c r="R10">
+        <v>-6.6386691057316902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>5.9732845415303499</v>
+      </c>
+      <c r="D11">
+        <v>8.9882448001836507E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.6034447684102501E-2</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11">
+        <v>-2.4092525957003899</v>
+      </c>
+      <c r="R11">
+        <v>-3.3232799179300101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>4.5048770435326002</v>
+      </c>
+      <c r="D12">
+        <v>6.2787061021607896E-3</v>
+      </c>
+      <c r="E12">
+        <v>5.8288613867035098E-3</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12">
+        <v>-5.0705913544178598</v>
+      </c>
+      <c r="R12">
+        <v>-5.1449336001459702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>11.399427075370401</v>
+      </c>
+      <c r="D13">
+        <v>4.42945969697229E-3</v>
+      </c>
+      <c r="E13">
+        <v>2.0399920842728202E-2</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>-5.41947766692945</v>
+      </c>
+      <c r="R13">
+        <v>-3.8922242583979201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>12.5606203327633</v>
+      </c>
+      <c r="D14">
+        <v>2.7725941184653199E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.57863615481202E-3</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14">
+        <v>-3.5853867991747999</v>
+      </c>
+      <c r="R14">
+        <v>-5.6327735134971304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>9.2677400641421706</v>
+      </c>
+      <c r="D15">
+        <v>2.20070422535211E-4</v>
+      </c>
+      <c r="E15">
+        <v>2.0733823159401001E-2</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>-8.4215629604009905</v>
+      </c>
+      <c r="R15">
+        <v>-3.8759889431326902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>7.5048582496461202</v>
+      </c>
+      <c r="D16">
+        <v>1.6453373788531799E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.4476841952631198E-3</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>-4.1072247292717901</v>
+      </c>
+      <c r="R16">
+        <v>-6.01261292785692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>8.5068343142565297</v>
+      </c>
+      <c r="D17">
+        <v>1.77709473801255E-4</v>
+      </c>
+      <c r="E17">
+        <v>1.2449551521648399E-2</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>-8.6353605107680806</v>
+      </c>
+      <c r="R17">
+        <v>-4.3860706790778003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>7.8487844578557997</v>
+      </c>
+      <c r="D18">
+        <v>1.9868301544050899E-4</v>
+      </c>
+      <c r="E18">
+        <v>1.08805361478411E-2</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>-8.5237998904670906</v>
+      </c>
+      <c r="R18">
+        <v>-4.5207797604742499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>5.5834324346795503</v>
+      </c>
+      <c r="D19">
+        <v>1.8788682581785999E-3</v>
+      </c>
+      <c r="E19">
+        <v>9.3290935780684196E-3</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>-6.27708567373974</v>
+      </c>
+      <c r="R19">
+        <v>-4.6746174201748101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>10.0432691796947</v>
+      </c>
+      <c r="D20">
+        <v>4.1544209063595801E-2</v>
+      </c>
+      <c r="E20">
+        <v>5.8707221096753097E-3</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <v>-3.1809971401112702</v>
+      </c>
+      <c r="R20">
+        <v>-5.1377776357276401</v>
       </c>
     </row>
   </sheetData>

--- a/02_PublishedAnalysis/Figs_Tables/Sign_fungOTUs.xlsx
+++ b/02_PublishedAnalysis/Figs_Tables/Sign_fungOTUs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/Figs_Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB3B54-143D-5F4F-BBA3-6983668D4786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD88F12-F203-3A40-B36E-051AB9EF36ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="25040" windowHeight="13740" xr2:uid="{6D693A61-9226-DC4F-B5D3-5F2A149B2265}"/>
+    <workbookView xWindow="8480" yWindow="460" windowWidth="25040" windowHeight="13740" xr2:uid="{6D693A61-9226-DC4F-B5D3-5F2A149B2265}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
     <t>o__Hypocreales</t>
   </si>
   <si>
-    <t>g__.Aureobasidium</t>
+    <t>g__Aureobasidium</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A5D259-0A0E-A84A-BADE-22FA3DD3BD2D}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,504 +662,504 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>51</v>
       </c>
       <c r="D2" s="1">
-        <v>30.787810040554501</v>
+        <v>22.323137572103999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.113334189119341</v>
+        <v>4.0603974985536098E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>1.30676831509567E-2</v>
+        <v>9.6161712275815797E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>-2.1774143990155399</v>
+        <v>-3.2038893111192501</v>
       </c>
       <c r="H2" s="1">
-        <v>-4.3376130317144304</v>
+        <v>-2.3417240018249101</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
-        <v>22.323137572103999</v>
+        <v>11.4736669933824</v>
       </c>
       <c r="E3" s="1">
-        <v>4.0603974985536098E-2</v>
+        <v>0.105573332763887</v>
       </c>
       <c r="F3" s="1">
-        <v>9.6161712275815797E-2</v>
+        <v>0.28321104688773002</v>
       </c>
       <c r="G3" s="1">
-        <v>-3.2038893111192501</v>
+        <v>-2.2483494702462199</v>
       </c>
       <c r="H3" s="1">
-        <v>-2.3417240018249101</v>
+        <v>-1.2615629105514099</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>11.4736669933824</v>
+        <v>11.399427075370401</v>
       </c>
       <c r="E4" s="1">
-        <v>0.105573332763887</v>
+        <v>4.42945969697229E-3</v>
       </c>
       <c r="F4" s="1">
-        <v>0.28321104688773002</v>
+        <v>2.0399920842728202E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>-2.2483494702462199</v>
+        <v>-5.41947766692945</v>
       </c>
       <c r="H4" s="1">
-        <v>-1.2615629105514099</v>
+        <v>-3.8922242583979201</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
-        <v>42.750944864190302</v>
+        <v>9.2677400641421706</v>
       </c>
       <c r="E5" s="1">
-        <v>1.47490277758582E-2</v>
+        <v>2.20070422535211E-4</v>
       </c>
       <c r="F5" s="1">
-        <v>1.44724788818585E-3</v>
+        <v>2.0733823159401001E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>-4.21657811186983</v>
+        <v>-8.4215629604009905</v>
       </c>
       <c r="H5" s="1">
-        <v>-6.5380915341972097</v>
+        <v>-3.8759889431326902</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
-        <v>16.764901603090301</v>
+        <v>8.5068343142565297</v>
       </c>
       <c r="E6" s="1">
-        <v>0.10453370766648</v>
+        <v>1.77709473801255E-4</v>
       </c>
       <c r="F6" s="1">
-        <v>3.43157784896434E-2</v>
+        <v>1.2449551521648399E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>-2.2582456981873</v>
+        <v>-8.6353605107680806</v>
       </c>
       <c r="H6" s="1">
-        <v>-3.3721500163090599</v>
+        <v>-4.3860706790778003</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
-        <v>15.1676047743934</v>
+        <v>7.8487844578557997</v>
       </c>
       <c r="E7" s="1">
-        <v>2.39497068502387E-2</v>
+        <v>1.9868301544050899E-4</v>
       </c>
       <c r="F7" s="1">
-        <v>2.5151780896448699E-3</v>
+        <v>1.08805361478411E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>-3.73179919527366</v>
+        <v>-8.5237998904670906</v>
       </c>
       <c r="H7" s="1">
-        <v>-5.9854116669454198</v>
+        <v>-4.5207797604742499</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
-        <v>21.6046389557156</v>
+        <v>5.5834324346795503</v>
       </c>
       <c r="E8" s="1">
-        <v>3.0540774108107301E-2</v>
+        <v>1.8788682581785999E-3</v>
       </c>
       <c r="F8" s="1">
-        <v>1.2585308998322301E-3</v>
+        <v>9.3290935780684196E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>-3.4886926321616301</v>
+        <v>-6.27708567373974</v>
       </c>
       <c r="H8" s="1">
-        <v>-6.6778101907843004</v>
+        <v>-4.6746174201748101</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1">
-        <v>9.1698588991190704</v>
+        <v>30.787810040554501</v>
       </c>
       <c r="E9" s="1">
-        <v>5.4631142973437501E-3</v>
+        <v>0.113334189119341</v>
       </c>
       <c r="F9" s="1">
-        <v>4.8624488995423704E-3</v>
+        <v>1.30676831509567E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>-5.2097362677036303</v>
+        <v>-2.1774143990155399</v>
       </c>
       <c r="H9" s="1">
-        <v>-5.3262130791843401</v>
+        <v>-4.3376130317144304</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1">
-        <v>18.675386661815601</v>
+        <v>42.750944864190302</v>
       </c>
       <c r="E10" s="1">
-        <v>1.2377084823522899E-2</v>
+        <v>1.47490277758582E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>1.3087679169727501E-3</v>
+        <v>1.44724788818585E-3</v>
       </c>
       <c r="G10" s="1">
-        <v>-4.3919085141292502</v>
+        <v>-4.21657811186983</v>
       </c>
       <c r="H10" s="1">
-        <v>-6.6386691057316902</v>
+        <v>-6.5380915341972097</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1">
-        <v>5.9732845415303499</v>
+        <v>16.764901603090301</v>
       </c>
       <c r="E11" s="1">
-        <v>8.9882448001836507E-2</v>
+        <v>0.10453370766648</v>
       </c>
       <c r="F11" s="1">
-        <v>3.6034447684102501E-2</v>
+        <v>3.43157784896434E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>-2.4092525957003899</v>
+        <v>-2.2582456981873</v>
       </c>
       <c r="H11" s="1">
-        <v>-3.3232799179300101</v>
+        <v>-3.3721500163090599</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>4.5048770435326002</v>
+        <v>15.1676047743934</v>
       </c>
       <c r="E12" s="1">
-        <v>6.2787061021607896E-3</v>
+        <v>2.39497068502387E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>5.8288613867035098E-3</v>
+        <v>2.5151780896448699E-3</v>
       </c>
       <c r="G12" s="1">
-        <v>-5.0705913544178598</v>
+        <v>-3.73179919527366</v>
       </c>
       <c r="H12" s="1">
-        <v>-5.1449336001459702</v>
+        <v>-5.9854116669454198</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
-        <v>11.399427075370401</v>
+        <v>21.6046389557156</v>
       </c>
       <c r="E13" s="1">
-        <v>4.42945969697229E-3</v>
+        <v>3.0540774108107301E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>2.0399920842728202E-2</v>
+        <v>1.2585308998322301E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>-5.41947766692945</v>
+        <v>-3.4886926321616301</v>
       </c>
       <c r="H13" s="1">
-        <v>-3.8922242583979201</v>
+        <v>-6.6778101907843004</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5606203327633</v>
+        <v>9.1698588991190704</v>
       </c>
       <c r="E14" s="1">
-        <v>2.7725941184653199E-2</v>
+        <v>5.4631142973437501E-3</v>
       </c>
       <c r="F14" s="1">
-        <v>3.57863615481202E-3</v>
+        <v>4.8624488995423704E-3</v>
       </c>
       <c r="G14" s="1">
-        <v>-3.5853867991747999</v>
+        <v>-5.2097362677036303</v>
       </c>
       <c r="H14" s="1">
-        <v>-5.6327735134971304</v>
+        <v>-5.3262130791843401</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
-        <v>9.2677400641421706</v>
+        <v>18.675386661815601</v>
       </c>
       <c r="E15" s="1">
-        <v>2.20070422535211E-4</v>
+        <v>1.2377084823522899E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>2.0733823159401001E-2</v>
+        <v>1.3087679169727501E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>-8.4215629604009905</v>
+        <v>-4.3919085141292502</v>
       </c>
       <c r="H15" s="1">
-        <v>-3.8759889431326902</v>
+        <v>-6.6386691057316902</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
-        <v>7.5048582496461202</v>
+        <v>5.9732845415303499</v>
       </c>
       <c r="E16" s="1">
-        <v>1.6453373788531799E-2</v>
+        <v>8.9882448001836507E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>2.4476841952631198E-3</v>
+        <v>3.6034447684102501E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>-4.1072247292717901</v>
+        <v>-2.4092525957003899</v>
       </c>
       <c r="H16" s="1">
-        <v>-6.01261292785692</v>
+        <v>-3.3232799179300101</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1">
-        <v>8.5068343142565297</v>
+        <v>4.5048770435326002</v>
       </c>
       <c r="E17" s="1">
-        <v>1.77709473801255E-4</v>
+        <v>6.2787061021607896E-3</v>
       </c>
       <c r="F17" s="1">
-        <v>1.2449551521648399E-2</v>
+        <v>5.8288613867035098E-3</v>
       </c>
       <c r="G17" s="1">
-        <v>-8.6353605107680806</v>
+        <v>-5.0705913544178598</v>
       </c>
       <c r="H17" s="1">
-        <v>-4.3860706790778003</v>
+        <v>-5.1449336001459702</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
-        <v>7.8487844578557997</v>
+        <v>12.5606203327633</v>
       </c>
       <c r="E18" s="1">
-        <v>1.9868301544050899E-4</v>
+        <v>2.7725941184653199E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>1.08805361478411E-2</v>
+        <v>3.57863615481202E-3</v>
       </c>
       <c r="G18" s="1">
-        <v>-8.5237998904670906</v>
+        <v>-3.5853867991747999</v>
       </c>
       <c r="H18" s="1">
-        <v>-4.5207797604742499</v>
+        <v>-5.6327735134971304</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
-        <v>5.5834324346795503</v>
+        <v>7.5048582496461202</v>
       </c>
       <c r="E19" s="1">
-        <v>1.8788682581785999E-3</v>
+        <v>1.6453373788531799E-2</v>
       </c>
       <c r="F19" s="1">
-        <v>9.3290935780684196E-3</v>
+        <v>2.4476841952631198E-3</v>
       </c>
       <c r="G19" s="1">
-        <v>-6.27708567373974</v>
+        <v>-4.1072247292717901</v>
       </c>
       <c r="H19" s="1">
-        <v>-4.6746174201748101</v>
+        <v>-6.01261292785692</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1193,8 +1193,8 @@
       <c r="J20" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K21">
-    <sortCondition ref="B2:B21"/>
+  <sortState ref="A2:J20">
+    <sortCondition ref="B2:B20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
